--- a/biology/Médecine/Dyshidrose/Dyshidrose.xlsx
+++ b/biology/Médecine/Dyshidrose/Dyshidrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dyshidrose[1], ou dysidrose (également appelée pompholyx, terme généralement réservé aux cas de vésicules pruritiques profondes[2]), est une forme d'eczéma, dit « eczéma bulleux », surtout présent sur les faces palmaires et/ou plantaires. Le nom de cette maladie signifie « mauvaise sueur », car on considérait autrefois que le liquide qui se formait à l'intérieur des petites cloques était une sorte de sueur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyshidrose, ou dysidrose (également appelée pompholyx, terme généralement réservé aux cas de vésicules pruritiques profondes), est une forme d'eczéma, dit « eczéma bulleux », surtout présent sur les faces palmaires et/ou plantaires. Le nom de cette maladie signifie « mauvaise sueur », car on considérait autrefois que le liquide qui se formait à l'intérieur des petites cloques était une sorte de sueur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle consiste en la survenue de petites boursouflures présentant les caractéristiques suivantes :
 vésicules très petites (1 mm ou moins en diamètre), qui apparaissent sur les bouts et les côtés des doigts des mains et pieds, paumes et semelles ;
@@ -546,14 +560,16 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les causes sont inconnues mais la plupart du temps liées à une transpiration excessive pendant les périodes d'anxiété, stress et/ou frustration. Chez certains patients, la dyshidrose ne se manifeste qu'entre le milieu du printemps et l'automne, ou bien encore après l'exposition prolongée à la lumière du soleil.
 Elle n'est pas causée par une conservation de la sueur, comme cela fut cru par le passé ; cependant garder la peau humide peut déclencher ou empirer une manifestation. C'est pour cette raison que les fibres naturelles pour les gants, chaussettes et chaussures sont préférables aux matériaux qui respirent mal.
 Il existe certains facteurs de risque :
 Peut-être l'effet secondaire de problèmes intestinaux. Certains patients affirment que des régimes peuvent soulager les symptômes (soulageant l'état interne de la maladie de Crohn, de la rectocolite hémorragique ou l'infection intestinale de levure).[réf. nécessaire]
 Infections mycotiques. La dyshidrose serait une manifestation à distance d'une dermatophytose dont il conviendrait de rechercher le foyer mycosique, généralement un onyxis ou un intertrigo interdigito-plantaire.[réf. nécessaire]
-La dyshidrose est souvent liée à l'atopie et plus encore, aux allergies aux métaux (nickel, cobalt, chrome). Elle peut également être liée à une allergie alimentaire.[réf. nécessaire]. Quand elle survient sur les pieds, accompagnée de démangeaisons ou de sensations de brûlures, la cause peut-en être une allergie à de nouvelles chaussures contenant des produits chimiques irritants tel que le diméthylfumarate[3] ou autres substance allergène. Pour traiter dans ce cas, ne plus mettre les chaussures responsables (signaler le problème à la DGCCRF) et tout rentrera dans l'ordre au bout de quelques jours ou quelques semaines selon la gravité de l'attaque.
+La dyshidrose est souvent liée à l'atopie et plus encore, aux allergies aux métaux (nickel, cobalt, chrome). Elle peut également être liée à une allergie alimentaire.[réf. nécessaire]. Quand elle survient sur les pieds, accompagnée de démangeaisons ou de sensations de brûlures, la cause peut-en être une allergie à de nouvelles chaussures contenant des produits chimiques irritants tel que le diméthylfumarate ou autres substance allergène. Pour traiter dans ce cas, ne plus mettre les chaussures responsables (signaler le problème à la DGCCRF) et tout rentrera dans l'ordre au bout de quelques jours ou quelques semaines selon la gravité de l'attaque.
 Peut être causée par le contact avec certaines plantes.[réf. nécessaire]
 L'alimentation, notamment une consommation importante de sucre raffiné, de viande de porc et de produits laitiers, seraient un facteur déclencheur importante.[réf. nécessaire]</t>
         </is>
@@ -583,7 +599,9 @@
           <t>Évolution de la maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La dyshidrose est une maladie chronique qui évolue par poussées, séparées par des périodes calmes avec très peu, ou aucune, formation bulleuse. Il existe des facteurs déclencheurs de poussées, malheureusement mal définis : sudation importante, stress, mauvaise hygiène de vie, mycoses, etc.
 La maladie peut régresser spontanément et disparaître pendant une longue période, mais peut aussi revenir ponctuellement ou complètement.
@@ -616,7 +634,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun traitement systématique pour le moment, il est conseillé d'avoir une bonne hygiène (se laver les pieds et/ou les mains 3 fois par jour), et dans le cas de dyshidrose plantaire, marcher le plus souvent pieds nus.
 Bien que le maintien d'une bonne hygiène soit conseillé sur les zones touchées, l'apparition des symptômes n'est pas provoquée par une mauvaise hygiène.
